--- a/tests/shared/Domain/DataFile/Excel/read_sample2.xlsx
+++ b/tests/shared/Domain/DataFile/Excel/read_sample2.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="プログラミング言語一覧" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="フレームワーク一覧" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="出荷一覧" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="請求一覧" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,51 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>動的型付け</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>静的型付け</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Laravel</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>RonR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>shipping_id</t>
+  </si>
+  <si>
+    <t>shipping_date</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>billing_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>billing_amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -84,11 +66,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -326,44 +311,44 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="2">
+        <v>44835.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44836.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="2">
+        <v>44836.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44837.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="2">
+        <v>44837.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44838.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" s="2">
+        <v>44838.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44839.0</v>
       </c>
     </row>
   </sheetData>
@@ -383,42 +368,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="2">
+        <v>44835.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="2">
+        <v>44836.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="2">
+        <v>44837.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="2">
+        <v>44838.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3000.0</v>
       </c>
     </row>
   </sheetData>
